--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.7989567828319</v>
+        <v>201.7952035596566</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.2757383857075</v>
+        <v>276.1051000862637</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.539246862652</v>
+        <v>249.7540168500534</v>
       </c>
       <c r="AD2" t="n">
-        <v>158798.9567828319</v>
+        <v>201795.2035596566</v>
       </c>
       <c r="AE2" t="n">
-        <v>217275.7383857075</v>
+        <v>276105.1000862637</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.274259267816558e-06</v>
+        <v>4.720383069336942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>196539.246862652</v>
+        <v>249754.0168500534</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.7511735333036</v>
+        <v>136.6513664283047</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.5346416251411</v>
+        <v>186.9724281799313</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.0723881086842</v>
+        <v>169.1280420519423</v>
       </c>
       <c r="AD3" t="n">
-        <v>110751.1735333036</v>
+        <v>136651.3664283047</v>
       </c>
       <c r="AE3" t="n">
-        <v>151534.6416251411</v>
+        <v>186972.4281799312</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.284713166489917e-06</v>
+        <v>6.177118497262883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.094907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>137072.3881086842</v>
+        <v>169128.0420519423</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.9886248612605</v>
+        <v>136.8888177562617</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.8595330076649</v>
+        <v>187.297319562455</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.366272313648</v>
+        <v>169.4219262569061</v>
       </c>
       <c r="AD4" t="n">
-        <v>110988.6248612605</v>
+        <v>136888.8177562617</v>
       </c>
       <c r="AE4" t="n">
-        <v>151859.5330076649</v>
+        <v>187297.3195624551</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.283242651460663e-06</v>
+        <v>6.174998508074632e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.094907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>137366.272313648</v>
+        <v>169421.9262569061</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.4370155496351</v>
+        <v>160.0214584236262</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.9967026823853</v>
+        <v>218.9484190636075</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.4861401808238</v>
+        <v>198.0522892442757</v>
       </c>
       <c r="AD2" t="n">
-        <v>126437.0155496351</v>
+        <v>160021.4584236262</v>
       </c>
       <c r="AE2" t="n">
-        <v>172996.7026823853</v>
+        <v>218948.4190636075</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899774647926106e-06</v>
+        <v>5.709123379125157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>156486.1401808237</v>
+        <v>198052.2892442757</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.5460677667927</v>
+        <v>131.7984279403525</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.7810303992305</v>
+        <v>180.3324236441825</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.8678934629287</v>
+        <v>163.1217502297783</v>
       </c>
       <c r="AD3" t="n">
-        <v>106546.0677667927</v>
+        <v>131798.4279403525</v>
       </c>
       <c r="AE3" t="n">
-        <v>145781.0303992305</v>
+        <v>180332.4236441824</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.394499473002938e-06</v>
+        <v>6.433381912007766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>131867.8934629287</v>
+        <v>163121.7502297784</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.0664392126213</v>
+        <v>138.0503428035597</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.4930255685807</v>
+        <v>188.8865693750359</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.5119368126079</v>
+        <v>170.8595002979009</v>
       </c>
       <c r="AD2" t="n">
-        <v>107066.4392126213</v>
+        <v>138050.3428035597</v>
       </c>
       <c r="AE2" t="n">
-        <v>146493.0255685807</v>
+        <v>188886.5693750359</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.318964762434929e-06</v>
+        <v>6.681971589897572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>132511.9368126079</v>
+        <v>170859.5002979009</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.8431783225813</v>
+        <v>132.9290403695592</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.9780854679386</v>
+        <v>181.8793774489223</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.8096506443748</v>
+        <v>164.5210649345576</v>
       </c>
       <c r="AD2" t="n">
-        <v>100843.1783225813</v>
+        <v>132929.0403695592</v>
       </c>
       <c r="AE2" t="n">
-        <v>137978.0854679386</v>
+        <v>181879.3774489223</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.442390040974963e-06</v>
+        <v>6.71375727438085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.557870370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>124809.6506443748</v>
+        <v>164521.0649345577</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.5146475987435</v>
+        <v>144.2233649298771</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.7380399391456</v>
+        <v>197.332770582775</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.8290059520167</v>
+        <v>178.4996079166938</v>
       </c>
       <c r="AD2" t="n">
-        <v>106514.6475987435</v>
+        <v>144223.3649298771</v>
       </c>
       <c r="AE2" t="n">
-        <v>145738.0399391456</v>
+        <v>197332.770582775</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.112930461063537e-06</v>
+        <v>6.500437198824891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.859953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>131829.0059520167</v>
+        <v>178499.6079166938</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.4940843133391</v>
+        <v>165.3055635770793</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.9160072670096</v>
+        <v>226.1783648528251</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.7450760471987</v>
+        <v>204.5922191546654</v>
       </c>
       <c r="AD2" t="n">
-        <v>131494.0843133391</v>
+        <v>165305.5635770793</v>
       </c>
       <c r="AE2" t="n">
-        <v>179916.0072670096</v>
+        <v>226178.3648528251</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.744622853695798e-06</v>
+        <v>5.459234315536456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.32175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>162745.0760471987</v>
+        <v>204592.2191546654</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.4706643122693</v>
+        <v>132.893301778141</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.0461041830717</v>
+        <v>181.8304783314686</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.0122303803827</v>
+        <v>164.4768326802434</v>
       </c>
       <c r="AD3" t="n">
-        <v>107470.6643122693</v>
+        <v>132893.301778141</v>
       </c>
       <c r="AE3" t="n">
-        <v>147046.1041830717</v>
+        <v>181830.4783314686</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.373707001887457e-06</v>
+        <v>6.376367469754747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.123842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>133012.2303803827</v>
+        <v>164476.8326802434</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2934094537052</v>
+        <v>152.4702193589237</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.7495292007376</v>
+        <v>208.6164806381308</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6941355367173</v>
+        <v>188.7064165211566</v>
       </c>
       <c r="AD2" t="n">
-        <v>115293.4094537052</v>
+        <v>152470.2193589237</v>
       </c>
       <c r="AE2" t="n">
-        <v>157749.5292007376</v>
+        <v>208616.4806381307</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.887695611465842e-06</v>
+        <v>6.229001580240074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.58912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>142694.1355367173</v>
+        <v>188706.4165211566</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.8359007812349</v>
+        <v>137.5981598685339</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.4411044823489</v>
+        <v>188.2678727344308</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.7512867914469</v>
+        <v>170.2998511963287</v>
       </c>
       <c r="AD2" t="n">
-        <v>104835.9007812349</v>
+        <v>137598.1598685339</v>
       </c>
       <c r="AE2" t="n">
-        <v>143441.1044823489</v>
+        <v>188267.8727344308</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369619217608471e-06</v>
+        <v>6.488199369312147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>129751.2867914469</v>
+        <v>170299.8511963287</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.4339377127934</v>
+        <v>136.1961968000923</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.5228767618627</v>
+        <v>186.3496450139445</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.0161320323537</v>
+        <v>168.5646964372355</v>
       </c>
       <c r="AD3" t="n">
-        <v>103433.9377127934</v>
+        <v>136196.1968000923</v>
       </c>
       <c r="AE3" t="n">
-        <v>141522.8767618627</v>
+        <v>186349.6450139445</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.454031425598961e-06</v>
+        <v>6.613538262101503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.274305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>128016.1320323537</v>
+        <v>168564.6964372355</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.6464400913081</v>
+        <v>146.0804645778944</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.1278289430609</v>
+        <v>199.8737362506452</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.4180852685439</v>
+        <v>180.798067387491</v>
       </c>
       <c r="AD2" t="n">
-        <v>112646.4400913081</v>
+        <v>146080.4645778944</v>
       </c>
       <c r="AE2" t="n">
-        <v>154127.8289430609</v>
+        <v>199873.7362506452</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.082211947769127e-06</v>
+        <v>6.002657856860945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>139418.0852685439</v>
+        <v>180798.067387491</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.5016348990965</v>
+        <v>130.5772427725874</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.3519912725232</v>
+        <v>178.6615442227597</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.5752398248048</v>
+        <v>161.6103371952416</v>
       </c>
       <c r="AD3" t="n">
-        <v>105501.6348990965</v>
+        <v>130577.2427725874</v>
       </c>
       <c r="AE3" t="n">
-        <v>144351.9912725232</v>
+        <v>178661.5442227597</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.415618276187239e-06</v>
+        <v>6.492912684981724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>130575.2398248048</v>
+        <v>161610.3371952416</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.8123913013287</v>
+        <v>186.6370264884024</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.7704583333184</v>
+        <v>255.3650134858083</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.990961959115</v>
+        <v>230.9933350058446</v>
       </c>
       <c r="AD2" t="n">
-        <v>143812.3913013287</v>
+        <v>186637.0264884024</v>
       </c>
       <c r="AE2" t="n">
-        <v>196770.4583333184</v>
+        <v>255365.0134858083</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.415362706465491e-06</v>
+        <v>4.94125286400475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.969907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>177990.961959115</v>
+        <v>230993.3350058446</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.8543806342336</v>
+        <v>135.6004557677718</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.3076100169237</v>
+        <v>185.5345258512846</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.9624626750051</v>
+        <v>167.8273711034327</v>
       </c>
       <c r="AD3" t="n">
-        <v>109854.3806342336</v>
+        <v>135600.4557677718</v>
       </c>
       <c r="AE3" t="n">
-        <v>150307.6100169237</v>
+        <v>185534.5258512846</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.316688973442388e-06</v>
+        <v>6.24526692660232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.094907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>135962.4626750051</v>
+        <v>167827.3711034327</v>
       </c>
     </row>
     <row r="4">
@@ -5198,28 +5198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.0604113489396</v>
+        <v>135.8064864824779</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.589510330218</v>
+        <v>185.8164261645789</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.2174588180482</v>
+        <v>168.0823672464758</v>
       </c>
       <c r="AD4" t="n">
-        <v>110060.4113489396</v>
+        <v>135806.4864824779</v>
       </c>
       <c r="AE4" t="n">
-        <v>150589.510330218</v>
+        <v>185816.4261645789</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.316212529391948e-06</v>
+        <v>6.244577620449179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.094907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>136217.4588180482</v>
+        <v>168082.3672464758</v>
       </c>
     </row>
   </sheetData>
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.5035584503579</v>
+        <v>133.716203182561</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.8816466926772</v>
+        <v>182.9564083368433</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.6269772539808</v>
+        <v>165.4953055061581</v>
       </c>
       <c r="AD2" t="n">
-        <v>101503.5584503579</v>
+        <v>133716.203182561</v>
       </c>
       <c r="AE2" t="n">
-        <v>138881.6466926772</v>
+        <v>182956.4083368432</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.46324861431975e-06</v>
+        <v>6.702391772736162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.424768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>125626.9772539808</v>
+        <v>165495.3055061581</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.49031023054584</v>
+        <v>130.9230781988672</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.1270316600887</v>
+        <v>179.1347315101777</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.1352588139752</v>
+        <v>162.0383641520712</v>
       </c>
       <c r="AD2" t="n">
-        <v>99490.31023054585</v>
+        <v>130923.0781988672</v>
       </c>
       <c r="AE2" t="n">
-        <v>136127.0316600887</v>
+        <v>179134.7315101777</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.388283794890945e-06</v>
+        <v>6.730516003584354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123135.2588139752</v>
+        <v>162038.3641520712</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.4410241048034</v>
+        <v>137.028813119148</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.6373050266974</v>
+        <v>187.4888673941155</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.7378850382303</v>
+        <v>169.595193032352</v>
       </c>
       <c r="AD2" t="n">
-        <v>106441.0241048034</v>
+        <v>137028.813119148</v>
       </c>
       <c r="AE2" t="n">
-        <v>145637.3050266974</v>
+        <v>187488.8673941155</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.248192654117915e-06</v>
+        <v>6.637717224906209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.408564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>131737.8850382303</v>
+        <v>169595.193032352</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.3697618931033</v>
+        <v>169.0349579935193</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.5364391456108</v>
+        <v>231.2810868226654</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.1652421465058</v>
+        <v>209.207944501421</v>
       </c>
       <c r="AD2" t="n">
-        <v>125369.7618931033</v>
+        <v>169034.9579935193</v>
       </c>
       <c r="AE2" t="n">
-        <v>171536.4391456108</v>
+        <v>231281.0868226654</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.529624893715612e-06</v>
+        <v>5.752145448068514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.86226851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>155165.2421465059</v>
+        <v>209207.944501421</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2542314726189</v>
+        <v>141.4430140295033</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.1182153404049</v>
+        <v>193.5285718204606</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.9820207535778</v>
+        <v>175.058476545027</v>
       </c>
       <c r="AD2" t="n">
-        <v>108254.2314726189</v>
+        <v>141443.0140295033</v>
       </c>
       <c r="AE2" t="n">
-        <v>148118.2153404049</v>
+        <v>193528.5718204606</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.244939781508231e-06</v>
+        <v>6.271392550598438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.552083333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>133982.0207535778</v>
+        <v>175058.476545027</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9886789915948</v>
+        <v>138.0068693478869</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.6501423698621</v>
+        <v>188.8270870750709</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.9403743963623</v>
+        <v>170.8056949051605</v>
       </c>
       <c r="AD3" t="n">
-        <v>104988.6789915948</v>
+        <v>138006.8693478869</v>
       </c>
       <c r="AE3" t="n">
-        <v>143650.1423698621</v>
+        <v>188827.0870750709</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.411839205538144e-06</v>
+        <v>6.51796655598715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.268518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>129940.3743963623</v>
+        <v>170805.6949051605</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.7618907239033</v>
+        <v>180.3214640728643</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.4918965140426</v>
+        <v>246.7237823659239</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.5024944608337</v>
+        <v>223.1768108559952</v>
       </c>
       <c r="AD2" t="n">
-        <v>137761.8907239033</v>
+        <v>180321.4640728643</v>
       </c>
       <c r="AE2" t="n">
-        <v>188491.8965140426</v>
+        <v>246723.7823659239</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.566755262445524e-06</v>
+        <v>5.17953147845441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.663194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>170502.4944608337</v>
+        <v>223176.8108559952</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.8480187772511</v>
+        <v>134.4350568079218</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.9306613266493</v>
+        <v>183.9399755806451</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.7169280351704</v>
+        <v>166.3850024726571</v>
       </c>
       <c r="AD3" t="n">
-        <v>108848.0187772511</v>
+        <v>134435.0568079218</v>
       </c>
       <c r="AE3" t="n">
-        <v>148930.6613266493</v>
+        <v>183939.9755806451</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.335780151192196e-06</v>
+        <v>6.296285594139724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.123842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>134716.9280351704</v>
+        <v>166385.0024726571</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.7940202414356</v>
+        <v>203.6036680332627</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.4277634075557</v>
+        <v>278.579520962872</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.3448330052196</v>
+        <v>251.9922824710706</v>
       </c>
       <c r="AD2" t="n">
-        <v>153794.0202414356</v>
+        <v>203603.6680332627</v>
       </c>
       <c r="AE2" t="n">
-        <v>210427.7634075558</v>
+        <v>278579.520962872</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919736208871627e-06</v>
+        <v>4.867026305103372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>190344.8330052196</v>
+        <v>251992.2824710706</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.1777196404832</v>
+        <v>131.9478835437463</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.0675755411274</v>
+        <v>180.5369153942615</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.9860385070695</v>
+        <v>163.306725574236</v>
       </c>
       <c r="AD2" t="n">
-        <v>100177.7196404832</v>
+        <v>131947.8835437463</v>
       </c>
       <c r="AE2" t="n">
-        <v>137067.5755411274</v>
+        <v>180536.9153942615</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.423378567503268e-06</v>
+        <v>6.731969132265702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>123986.0385070695</v>
+        <v>163306.725574236</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.7662178806502</v>
+        <v>135.2605102921823</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.609273029805</v>
+        <v>185.0693974542474</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.1897213582324</v>
+        <v>167.4066339077967</v>
       </c>
       <c r="AD2" t="n">
-        <v>102766.2178806502</v>
+        <v>135260.5102921823</v>
       </c>
       <c r="AE2" t="n">
-        <v>140609.273029805</v>
+        <v>185069.3974542474</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.435357916617553e-06</v>
+        <v>6.621593265530612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.38425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>127189.7213582324</v>
+        <v>167406.6339077967</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.6682039122957</v>
+        <v>135.1624963238278</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.4751659942312</v>
+        <v>184.9352904186736</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.0684133099133</v>
+        <v>167.2853258594777</v>
       </c>
       <c r="AD3" t="n">
-        <v>102668.2039122956</v>
+        <v>135162.4963238278</v>
       </c>
       <c r="AE3" t="n">
-        <v>140475.1659942312</v>
+        <v>184935.2904186736</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.452790764241027e-06</v>
+        <v>6.647618950174939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.355324074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>127068.4133099133</v>
+        <v>167285.3258594777</v>
       </c>
     </row>
   </sheetData>
